--- a/ExLabels.xlsx
+++ b/ExLabels.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Exercise</t>
   </si>
@@ -112,16 +112,161 @@
   </si>
   <si>
     <t>Running</t>
+  </si>
+  <si>
+    <t>back fist</t>
+  </si>
+  <si>
+    <t>ball slams</t>
+  </si>
+  <si>
+    <t>around room lizard crawl</t>
+  </si>
+  <si>
+    <t>battle ropes</t>
+  </si>
+  <si>
+    <t>bear crawl</t>
+  </si>
+  <si>
+    <t>bicep curls</t>
+  </si>
+  <si>
+    <t>bentover rear delt flys</t>
+  </si>
+  <si>
+    <t>burpees</t>
+  </si>
+  <si>
+    <t>cross body mountain climber</t>
+  </si>
+  <si>
+    <t>db clean</t>
+  </si>
+  <si>
+    <t>db forward lunges</t>
+  </si>
+  <si>
+    <t>db wood choppers</t>
+  </si>
+  <si>
+    <t>decline pushups</t>
+  </si>
+  <si>
+    <t>dumbbell bench press</t>
+  </si>
+  <si>
+    <t>dumbbell or kettlebell snatches</t>
+  </si>
+  <si>
+    <t>forearm plank</t>
+  </si>
+  <si>
+    <t>forward duck walk</t>
+  </si>
+  <si>
+    <t>glute bridges</t>
+  </si>
+  <si>
+    <t>hammer curls</t>
+  </si>
+  <si>
+    <t>hanging knee raise</t>
+  </si>
+  <si>
+    <t>hard round kicks</t>
+  </si>
+  <si>
+    <t>hip circles</t>
+  </si>
+  <si>
+    <t>hold low sumo squat</t>
+  </si>
+  <si>
+    <t>inverted rows</t>
+  </si>
+  <si>
+    <t>jacks</t>
+  </si>
+  <si>
+    <t>jump rope</t>
+  </si>
+  <si>
+    <t>lawn mower pull</t>
+  </si>
+  <si>
+    <t>overhead press</t>
+  </si>
+  <si>
+    <t>plank jacks</t>
+  </si>
+  <si>
+    <t>renegade rows</t>
+  </si>
+  <si>
+    <t>fire hydrant</t>
+  </si>
+  <si>
+    <t>pistol squat</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>v-sit</t>
+  </si>
+  <si>
+    <t>side plank</t>
+  </si>
+  <si>
+    <t>side tri rises</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>supermans</t>
+  </si>
+  <si>
+    <t>toe taps</t>
+  </si>
+  <si>
+    <t>trx tricep extensions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -151,14 +296,158 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="73">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,13 +777,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="19" topLeftCell="I22" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
@@ -644,13 +950,13 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -771,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -821,34 +1127,34 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -976,8 +1282,210 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
